--- a/src/test/resources/oldmutual/servicing/data/DefaultTestSuite.xlsx
+++ b/src/test/resources/oldmutual/servicing/data/DefaultTestSuite.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA998F0-4630-4A46-838A-FE349EB07952}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Test name</t>
   </si>
@@ -154,19 +155,64 @@
     <t>selectByIndex_district_2</t>
   </si>
   <si>
-    <t>https://secure.oldmutual.co.za/</t>
-  </si>
-  <si>
     <t>OMLoginTest</t>
   </si>
   <si>
     <t>OpenUrl_Url-2</t>
+  </si>
+  <si>
+    <t>set_username_username-2</t>
+  </si>
+  <si>
+    <t>click_login</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Password@01</t>
+  </si>
+  <si>
+    <t>NavigateTo_LoginPage</t>
+  </si>
+  <si>
+    <t>https://secure.oldmutual.co.za.dev/</t>
+  </si>
+  <si>
+    <t>set_password_password-2</t>
+  </si>
+  <si>
+    <t>click_SNISTLink</t>
+  </si>
+  <si>
+    <t>NavigateTo_SalesDashboardPage</t>
+  </si>
+  <si>
+    <t>click_burgermenu</t>
+  </si>
+  <si>
+    <t>click_ServicingDashboardLink</t>
+  </si>
+  <si>
+    <t>switchWindow</t>
+  </si>
+  <si>
+    <t>NavigateTo_ServicingDashboardPage</t>
+  </si>
+  <si>
+    <t>Wait_15</t>
+  </si>
+  <si>
+    <t>ANDREAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,9 +242,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,24 +525,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -560,33 +607,67 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -594,83 +675,96 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>9123544879</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>